--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_22.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931570.7489385292</v>
+        <v>993351.7472221099</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484426</v>
+        <v>492028.9342484446</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>107.7598650052584</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>48.45161328585655</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -823,10 +823,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>84.17800116257951</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -871,10 +871,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>281.2600550299849</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
@@ -902,13 +902,13 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>274.9196790593321</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>43.65861339748035</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -959,7 +959,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1060,7 +1060,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -1069,10 +1069,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>9.403371108921542</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>45.76594660771014</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>362.2799234885291</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>34.43553621072715</v>
       </c>
     </row>
     <row r="9">
@@ -1291,19 +1291,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>3.13954148002296</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>102.2476691019291</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1379,7 +1379,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>412.6203236955482</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
@@ -1388,7 +1388,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>71.43430199953463</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -1534,7 +1534,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1543,10 +1543,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1591,7 +1591,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>213.8263703194804</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1622,7 +1622,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>18.22772027659359</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>32.67077719907466</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1777,13 +1777,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170476</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1822,10 +1822,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>166.3197703738374</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1901,13 +1901,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>91.39226931002156</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>147.3525275309955</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -2011,16 +2011,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>50.3082548690714</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2068,7 +2068,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>191.8657325295508</v>
       </c>
     </row>
     <row r="20">
@@ -2084,10 +2084,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>381.8187305775009</v>
       </c>
       <c r="E20" t="n">
-        <v>161.8384861377999</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
@@ -2132,7 +2132,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -2245,7 +2245,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2305,7 +2305,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>165.8403702950057</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2491,10 +2491,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>61.08641542222839</v>
+        <v>18.05677735225785</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2536,7 +2536,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
@@ -2722,16 +2722,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>52.49195549286412</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170481</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2950,7 +2950,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
@@ -2965,10 +2965,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>89.05336748755474</v>
+        <v>144.4937753855482</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3202,10 +3202,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>5.990622819018634</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,16 +3235,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>205.9320983586124</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3266,7 +3266,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>433.76104808841</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
@@ -3424,16 +3424,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>61.06386613909972</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
@@ -3442,7 +3442,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>50.38971918733569</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>50.30825486907179</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3676,10 +3676,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>41.94061297377466</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507799956</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -3901,16 +3901,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>141.3509401177976</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
@@ -3955,7 +3955,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>60.9489922286968</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -4147,10 +4147,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>82.15263531037839</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
@@ -4192,13 +4192,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>158.3040288668733</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>946.8034234626114</v>
+        <v>1487.383877783764</v>
       </c>
       <c r="C2" t="n">
-        <v>518.2217491998797</v>
+        <v>1453.281809007591</v>
       </c>
       <c r="D2" t="n">
-        <v>486.3523684147282</v>
+        <v>1421.41242822244</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>987.6376833807351</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>559.7702537899429</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>158.3724224132068</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.52407392304679</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018679</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018679</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018679</v>
       </c>
       <c r="L2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018679</v>
       </c>
       <c r="M2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018679</v>
       </c>
       <c r="N2" t="n">
-        <v>267.8706684926505</v>
+        <v>524.3060841805649</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.008730489126</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1739.711376797688</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.210162756282</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509339</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2371.712353693176</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2151.645126566215</v>
       </c>
       <c r="U2" t="n">
-        <v>1437.961127397434</v>
+        <v>1892.422823883232</v>
       </c>
       <c r="V2" t="n">
-        <v>1437.961127397434</v>
+        <v>1529.805873817058</v>
       </c>
       <c r="W2" t="n">
-        <v>1437.146076848872</v>
+        <v>1528.990823268496</v>
       </c>
       <c r="X2" t="n">
-        <v>1018.003613428182</v>
+        <v>1513.88876388821</v>
       </c>
       <c r="Y2" t="n">
-        <v>969.0625899071151</v>
+        <v>1509.643044228268</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414795</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>448.8225683781218</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.7322795246751</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>259.6118648516288</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>176.2280264677904</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>90.84293673397431</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018679</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>75.17095771064439</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>75.17095771064439</v>
       </c>
       <c r="K3" t="n">
-        <v>33.94366860160834</v>
+        <v>75.17095771064439</v>
       </c>
       <c r="L3" t="n">
-        <v>33.94366860160834</v>
+        <v>446.7326829940189</v>
       </c>
       <c r="M3" t="n">
-        <v>33.94366860160834</v>
+        <v>446.7326829940189</v>
       </c>
       <c r="N3" t="n">
-        <v>319.8519551513677</v>
+        <v>446.7326829940189</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>446.7326829940189</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028996</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477379</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807949</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.936145603142</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.0687098420219</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212427</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>711.6628811189632</v>
+        <v>988.2632708524427</v>
       </c>
       <c r="C4" t="n">
-        <v>539.1011696021882</v>
+        <v>815.7015593356676</v>
       </c>
       <c r="D4" t="n">
-        <v>373.2231768037109</v>
+        <v>649.8235665371903</v>
       </c>
       <c r="E4" t="n">
-        <v>288.1948928011053</v>
+        <v>480.0655627879275</v>
       </c>
       <c r="F4" t="n">
-        <v>288.1948928011053</v>
+        <v>303.3585087496838</v>
       </c>
       <c r="G4" t="n">
-        <v>122.603617826933</v>
+        <v>137.7672337755114</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>137.7672337755114</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018679</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>135.6869697148767</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>410.4454242860122</v>
       </c>
       <c r="L4" t="n">
-        <v>33.94366860160834</v>
+        <v>828.6553060539734</v>
       </c>
       <c r="M4" t="n">
-        <v>341.7616130750586</v>
+        <v>1288.139173234886</v>
       </c>
       <c r="N4" t="n">
-        <v>761.8145120199619</v>
+        <v>1519.995309448884</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1939.664558674666</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2287.171452645007</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509339</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2455.364227509339</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>2296.122858807336</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>2050.243412385791</v>
       </c>
       <c r="U4" t="n">
-        <v>1270.644793662241</v>
+        <v>1771.810411638896</v>
       </c>
       <c r="V4" t="n">
-        <v>983.6892855326716</v>
+        <v>1487.709345952043</v>
       </c>
       <c r="W4" t="n">
-        <v>711.6628811189632</v>
+        <v>1215.682941538334</v>
       </c>
       <c r="X4" t="n">
-        <v>711.6628811189632</v>
+        <v>1215.682941538334</v>
       </c>
       <c r="Y4" t="n">
-        <v>711.6628811189632</v>
+        <v>988.2632708524427</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>844.0044704481411</v>
+        <v>710.0264917116014</v>
       </c>
       <c r="C5" t="n">
-        <v>809.9024016719685</v>
+        <v>675.9244229354288</v>
       </c>
       <c r="D5" t="n">
-        <v>778.0330208868171</v>
+        <v>644.0550421502774</v>
       </c>
       <c r="E5" t="n">
-        <v>748.2986800855164</v>
+        <v>366.3583966358005</v>
       </c>
       <c r="F5" t="n">
-        <v>724.4716545351282</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G5" t="n">
-        <v>323.0738231583921</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1294.102365436318</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1653.083820588013</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>1653.083820588013</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U5" t="n">
-        <v>1653.083820588013</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V5" t="n">
-        <v>1290.466870521839</v>
+        <v>1964.569699866108</v>
       </c>
       <c r="W5" t="n">
-        <v>885.6114159328727</v>
+        <v>1559.714245277141</v>
       </c>
       <c r="X5" t="n">
-        <v>870.5093565525874</v>
+        <v>1140.571781856452</v>
       </c>
       <c r="Y5" t="n">
-        <v>866.2636368926449</v>
+        <v>1136.326062196509</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N6" t="n">
-        <v>319.8519551513677</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>714.6817019292769</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>542.1199904125018</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>376.2419976140245</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>376.2419976140245</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>199.5349435757807</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>33.94366860160834</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>341.7616130750586</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>761.8145120199619</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1675.765608785789</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T7" t="n">
-        <v>1675.765608785789</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U7" t="n">
-        <v>1666.267254130313</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1379.311746000743</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W7" t="n">
-        <v>1379.311746000743</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1133.919991334156</v>
+        <v>1359.879047826402</v>
       </c>
       <c r="Y7" t="n">
-        <v>906.5003206482641</v>
+        <v>1132.45937714051</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>964.8023488251938</v>
+        <v>863.4620183751613</v>
       </c>
       <c r="C8" t="n">
-        <v>526.6598760086171</v>
+        <v>829.3599495989887</v>
       </c>
       <c r="D8" t="n">
-        <v>494.7904952234657</v>
+        <v>797.4905688138373</v>
       </c>
       <c r="E8" t="n">
-        <v>61.01575038176083</v>
+        <v>767.7562280125366</v>
       </c>
       <c r="F8" t="n">
-        <v>37.18872483137262</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G8" t="n">
-        <v>37.18872483137262</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H8" t="n">
-        <v>37.18872483137262</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M8" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N8" t="n">
-        <v>304.2846042752933</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>759.3373055743871</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1214.390006873481</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1669.442708172575</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925631</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1754.944899109468</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1754.944899109468</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1754.944899109468</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>1754.944899109468</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>1754.129848560906</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X8" t="n">
-        <v>1739.02778918062</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y8" t="n">
-        <v>1330.741665480274</v>
+        <v>885.721184819665</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498055</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864477</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.396930433001</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599547</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761163</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230017</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>36.77193545851263</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>36.77193545851263</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>36.77193545851263</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>36.77193545851263</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>36.77193545851263</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>217.6808149457006</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>672.7335162447943</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543888</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114679</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.7333607503479</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295686</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>372.1212141819477</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>372.1212141819477</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>372.1212141819477</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>202.363210432685</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F10" t="n">
-        <v>202.363210432685</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G10" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H10" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>36.77193545851263</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>36.77193545851263</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>36.77193545851263</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>460.9690517075312</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>903.2278548651758</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1322.897104090957</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1670.403998061299</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925631</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1817.178951631003</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1657.937582929</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1412.058136507455</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1412.058136507455</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1308.777662667123</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1036.751258253414</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>791.3595035868266</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>563.9398329009348</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2523.375184062124</v>
+        <v>2511.87917085155</v>
       </c>
       <c r="C11" t="n">
-        <v>2085.232711245547</v>
+        <v>2073.736698034974</v>
       </c>
       <c r="D11" t="n">
-        <v>1649.322926419992</v>
+        <v>1637.826913209418</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.548181578287</v>
+        <v>1204.052168367713</v>
       </c>
       <c r="F11" t="n">
-        <v>787.6807519874951</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G11" t="n">
-        <v>386.2829206107589</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H11" t="n">
-        <v>97.1527660539752</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I11" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J11" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="K11" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="L11" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="M11" t="n">
-        <v>1186.92545850396</v>
+        <v>1186.925458503958</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940407</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510714</v>
+        <v>3292.836108510712</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344109</v>
+        <v>4121.145983344108</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302704</v>
+        <v>4667.644769302702</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.79883405576</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S11" t="n">
-        <v>4836.79883405576</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T11" t="n">
-        <v>4616.731606928799</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U11" t="n">
-        <v>4544.575746323208</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="V11" t="n">
-        <v>4181.958796257034</v>
+        <v>4170.462783046461</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.103341668068</v>
+        <v>3765.607328457494</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.960878247378</v>
+        <v>3346.464865036805</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.674754547032</v>
+        <v>2938.178741336458</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5112,28 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I12" t="n">
-        <v>96.7359766811152</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J12" t="n">
-        <v>96.7359766811152</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K12" t="n">
-        <v>96.7359766811152</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L12" t="n">
-        <v>96.7359766811152</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M12" t="n">
-        <v>96.7359766811152</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N12" t="n">
-        <v>96.7359766811152</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3408549543107</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P12" t="n">
         <v>1102.064021433509</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1006.036133543734</v>
+        <v>947.2320137580463</v>
       </c>
       <c r="C13" t="n">
-        <v>833.4744220269588</v>
+        <v>774.6703022412712</v>
       </c>
       <c r="D13" t="n">
-        <v>667.5964292284815</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E13" t="n">
-        <v>667.5964292284815</v>
+        <v>439.0343056935312</v>
       </c>
       <c r="F13" t="n">
-        <v>490.8893751902377</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G13" t="n">
-        <v>325.2981002160653</v>
+        <v>96.73597668111506</v>
       </c>
       <c r="H13" t="n">
-        <v>185.3959259064399</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I13" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J13" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K13" t="n">
         <v>458.0741164169406</v>
@@ -5221,28 +5221,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R13" t="n">
-        <v>2691.977765289287</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S13" t="n">
-        <v>2532.736396587283</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T13" t="n">
-        <v>2286.856950165738</v>
+        <v>2449.276971119686</v>
       </c>
       <c r="U13" t="n">
-        <v>2008.423949418844</v>
+        <v>2170.843970372791</v>
       </c>
       <c r="V13" t="n">
-        <v>1721.468441289274</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W13" t="n">
-        <v>1449.442036875566</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X13" t="n">
-        <v>1233.455804229626</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y13" t="n">
-        <v>1006.036133543734</v>
+        <v>1139.050632477033</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2523.375184062125</v>
+        <v>2252.656868168567</v>
       </c>
       <c r="C14" t="n">
-        <v>2085.232711245548</v>
+        <v>1814.514395351991</v>
       </c>
       <c r="D14" t="n">
-        <v>1649.322926419993</v>
+        <v>1378.604610526435</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.548181578288</v>
+        <v>944.8298656847301</v>
       </c>
       <c r="F14" t="n">
-        <v>787.6807519874956</v>
+        <v>516.9624360939374</v>
       </c>
       <c r="G14" t="n">
-        <v>386.282920610759</v>
+        <v>115.5646047172013</v>
       </c>
       <c r="H14" t="n">
-        <v>97.15276605397524</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111525</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J14" t="n">
-        <v>96.73597668111525</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="K14" t="n">
-        <v>96.73597668111525</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="L14" t="n">
-        <v>96.73597668111525</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="M14" t="n">
-        <v>1186.925458503962</v>
+        <v>1186.925458503958</v>
       </c>
       <c r="N14" t="n">
-        <v>2312.656441940409</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="O14" t="n">
-        <v>3292.836108510715</v>
+        <v>3292.836108510712</v>
       </c>
       <c r="P14" t="n">
-        <v>4121.145983344111</v>
+        <v>4121.145983344108</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.644769302706</v>
+        <v>4667.644769302702</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055762</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S14" t="n">
-        <v>4836.798834055762</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T14" t="n">
-        <v>4803.798049006192</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U14" t="n">
-        <v>4544.575746323208</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V14" t="n">
-        <v>4181.958796257035</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.103341668068</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.960878247379</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.674754547033</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="15">
@@ -5337,40 +5337,40 @@
         <v>496.4512605090503</v>
       </c>
       <c r="D15" t="n">
-        <v>401.3609716556036</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E15" t="n">
-        <v>307.2405569825573</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F15" t="n">
-        <v>223.8567185987189</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G15" t="n">
-        <v>138.4716288649028</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111525</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I15" t="n">
-        <v>96.73597668111525</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J15" t="n">
-        <v>96.73597668111525</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K15" t="n">
-        <v>96.73597668111525</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L15" t="n">
-        <v>96.73597668111525</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M15" t="n">
-        <v>96.73597668111525</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N15" t="n">
-        <v>96.73597668111525</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3408549543107</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P15" t="n">
         <v>1102.064021433509</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1175.794137292997</v>
+        <v>806.2298140987274</v>
       </c>
       <c r="C16" t="n">
-        <v>1003.232425776222</v>
+        <v>633.6681025819523</v>
       </c>
       <c r="D16" t="n">
-        <v>837.3544329777443</v>
+        <v>467.790109783475</v>
       </c>
       <c r="E16" t="n">
-        <v>667.5964292284815</v>
+        <v>298.0321060342123</v>
       </c>
       <c r="F16" t="n">
-        <v>490.8893751902377</v>
+        <v>121.3250519959685</v>
       </c>
       <c r="G16" t="n">
-        <v>325.2981002160654</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="H16" t="n">
-        <v>185.3959259064399</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111525</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J16" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K16" t="n">
-        <v>458.0741164169407</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2839981849019</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M16" t="n">
         <v>1335.767865365815</v>
@@ -5458,28 +5458,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2691.977765289287</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S16" t="n">
-        <v>2532.736396587283</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T16" t="n">
-        <v>2286.856950165738</v>
+        <v>2308.274771460366</v>
       </c>
       <c r="U16" t="n">
-        <v>2008.423949418844</v>
+        <v>2029.841770713471</v>
       </c>
       <c r="V16" t="n">
-        <v>1840.424181364463</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W16" t="n">
-        <v>1840.424181364463</v>
+        <v>1470.859858170193</v>
       </c>
       <c r="X16" t="n">
-        <v>1595.032426697876</v>
+        <v>1225.468103503606</v>
       </c>
       <c r="Y16" t="n">
-        <v>1367.612756011984</v>
+        <v>998.0484328177145</v>
       </c>
     </row>
     <row r="17">
@@ -5501,58 +5501,58 @@
         <v>1215.131392205427</v>
       </c>
       <c r="F17" t="n">
-        <v>787.2639626146351</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G17" t="n">
-        <v>385.866131237899</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H17" t="n">
-        <v>96.73597668111525</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I17" t="n">
-        <v>96.73597668111525</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J17" t="n">
-        <v>96.73597668111525</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="K17" t="n">
-        <v>96.73597668111525</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="L17" t="n">
-        <v>96.73597668111525</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="M17" t="n">
-        <v>1186.925458503962</v>
+        <v>1253.783811891666</v>
       </c>
       <c r="N17" t="n">
-        <v>2312.656441940409</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="O17" t="n">
-        <v>3292.836108510715</v>
+        <v>3292.836108510712</v>
       </c>
       <c r="P17" t="n">
-        <v>4121.145983344111</v>
+        <v>4121.145983344108</v>
       </c>
       <c r="Q17" t="n">
-        <v>4667.644769302706</v>
+        <v>4667.644769302702</v>
       </c>
       <c r="R17" t="n">
-        <v>4836.798834055762</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S17" t="n">
-        <v>4753.146960239599</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T17" t="n">
-        <v>4533.079733112638</v>
+        <v>4533.079733112635</v>
       </c>
       <c r="U17" t="n">
-        <v>4273.857430429654</v>
+        <v>4273.857430429652</v>
       </c>
       <c r="V17" t="n">
-        <v>3911.240480363481</v>
+        <v>4181.542006884175</v>
       </c>
       <c r="W17" t="n">
-        <v>3506.385025774514</v>
+        <v>3776.686552295208</v>
       </c>
       <c r="X17" t="n">
         <v>3357.544088874519</v>
@@ -5574,37 +5574,37 @@
         <v>496.4512605090503</v>
       </c>
       <c r="D18" t="n">
-        <v>401.3609716556036</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E18" t="n">
-        <v>307.2405569825573</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F18" t="n">
-        <v>223.8567185987189</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G18" t="n">
-        <v>138.4716288649028</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H18" t="n">
-        <v>96.73597668111525</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I18" t="n">
-        <v>96.73597668111525</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J18" t="n">
-        <v>96.73597668111525</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="K18" t="n">
-        <v>96.73597668111525</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="L18" t="n">
-        <v>96.73597668111525</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="M18" t="n">
-        <v>96.73597668111525</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="N18" t="n">
-        <v>96.73597668111525</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="O18" t="n">
         <v>282.3408549543107</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>998.0484328177147</v>
+        <v>999.0870832547528</v>
       </c>
       <c r="C19" t="n">
-        <v>825.4867213009397</v>
+        <v>826.5253717379777</v>
       </c>
       <c r="D19" t="n">
-        <v>659.6087285024623</v>
+        <v>660.6473789395004</v>
       </c>
       <c r="E19" t="n">
-        <v>489.8507247531994</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="F19" t="n">
-        <v>313.1436707149556</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="G19" t="n">
-        <v>147.5523957407833</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H19" t="n">
-        <v>147.5523957407833</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I19" t="n">
-        <v>96.73597668111525</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J19" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K19" t="n">
-        <v>458.0741164169407</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L19" t="n">
-        <v>876.2839981849019</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M19" t="n">
         <v>1335.767865365815</v>
@@ -5698,25 +5698,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S19" t="n">
-        <v>2554.154217881911</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="T19" t="n">
-        <v>2308.274771460366</v>
+        <v>2467.51614016237</v>
       </c>
       <c r="U19" t="n">
-        <v>2029.841770713471</v>
+        <v>2189.083139415475</v>
       </c>
       <c r="V19" t="n">
-        <v>1742.886262583902</v>
+        <v>1902.127631285905</v>
       </c>
       <c r="W19" t="n">
-        <v>1470.859858170194</v>
+        <v>1630.101226872197</v>
       </c>
       <c r="X19" t="n">
-        <v>1225.468103503606</v>
+        <v>1384.709472205609</v>
       </c>
       <c r="Y19" t="n">
-        <v>998.0484328177147</v>
+        <v>1190.90570197374</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2252.65686816857</v>
+        <v>2472.724095295528</v>
       </c>
       <c r="C20" t="n">
-        <v>1814.514395351993</v>
+        <v>2034.581622478951</v>
       </c>
       <c r="D20" t="n">
-        <v>1378.604610526437</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E20" t="n">
         <v>1215.131392205427</v>
@@ -5744,58 +5744,58 @@
         <v>385.8661312378989</v>
       </c>
       <c r="H20" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I20" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J20" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="K20" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="L20" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="M20" t="n">
-        <v>1186.92545850396</v>
+        <v>1253.783811891666</v>
       </c>
       <c r="N20" t="n">
-        <v>2312.656441940407</v>
+        <v>2379.514795328113</v>
       </c>
       <c r="O20" t="n">
-        <v>3292.836108510714</v>
+        <v>3359.694461898419</v>
       </c>
       <c r="P20" t="n">
-        <v>4121.145983344109</v>
+        <v>4188.004336731816</v>
       </c>
       <c r="Q20" t="n">
-        <v>4667.644769302704</v>
+        <v>4667.644769302702</v>
       </c>
       <c r="R20" t="n">
-        <v>4836.79883405576</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S20" t="n">
-        <v>4753.146960239597</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T20" t="n">
-        <v>4533.079733112636</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="U20" t="n">
-        <v>4273.857430429653</v>
+        <v>4493.924657556612</v>
       </c>
       <c r="V20" t="n">
-        <v>3911.240480363479</v>
+        <v>4131.307707490439</v>
       </c>
       <c r="W20" t="n">
-        <v>3506.385025774513</v>
+        <v>3726.452252901472</v>
       </c>
       <c r="X20" t="n">
-        <v>3087.242562353823</v>
+        <v>3307.309789480782</v>
       </c>
       <c r="Y20" t="n">
-        <v>2678.956438653478</v>
+        <v>2899.023665780436</v>
       </c>
     </row>
     <row r="21">
@@ -5823,25 +5823,25 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H21" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I21" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J21" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="K21" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="L21" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="M21" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="N21" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="O21" t="n">
         <v>282.3408549543107</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>866.1339592341085</v>
+        <v>947.2320137580464</v>
       </c>
       <c r="C22" t="n">
-        <v>693.5722477173333</v>
+        <v>774.6703022412714</v>
       </c>
       <c r="D22" t="n">
-        <v>527.694254918856</v>
+        <v>608.7923094427941</v>
       </c>
       <c r="E22" t="n">
-        <v>527.694254918856</v>
+        <v>439.0343056935314</v>
       </c>
       <c r="F22" t="n">
-        <v>350.9872008806122</v>
+        <v>262.3272516552876</v>
       </c>
       <c r="G22" t="n">
-        <v>185.3959259064399</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="H22" t="n">
-        <v>185.3959259064399</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I22" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J22" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K22" t="n">
         <v>458.0741164169406</v>
@@ -5935,25 +5935,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S22" t="n">
-        <v>2554.154217881911</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T22" t="n">
-        <v>2308.274771460367</v>
+        <v>2449.276971119686</v>
       </c>
       <c r="U22" t="n">
-        <v>2029.841770713472</v>
+        <v>2170.843970372791</v>
       </c>
       <c r="V22" t="n">
-        <v>1742.886262583902</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W22" t="n">
-        <v>1470.859858170194</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X22" t="n">
-        <v>1225.468103503606</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y22" t="n">
-        <v>1057.952577953096</v>
+        <v>1139.050632477033</v>
       </c>
     </row>
     <row r="23">
@@ -6063,22 +6063,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="O24" t="n">
         <v>287.8657185439749</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.92045017358</v>
       </c>
       <c r="S25" t="n">
-        <v>2657.217000252136</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2411.337553830591</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2132.904553083697</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1845.949044954127</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1057.634124109936</v>
+        <v>811.7546776883919</v>
       </c>
       <c r="C28" t="n">
-        <v>885.0724125931614</v>
+        <v>639.1929661716168</v>
       </c>
       <c r="D28" t="n">
-        <v>719.1944197946841</v>
+        <v>473.3149733731395</v>
       </c>
       <c r="E28" t="n">
-        <v>549.4364160454214</v>
+        <v>303.5569696238767</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>126.849915585633</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6412,22 +6412,22 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2559.679081471576</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2281.246080724681</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1994.290572595112</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W28" t="n">
-        <v>1722.264168181403</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>1476.872413514816</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y28" t="n">
-        <v>1249.452742828924</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="29">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1008.757289365886</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6655,16 +6655,16 @@
         <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>1945.413737851061</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1673.387333437352</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1427.995578770765</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1200.575908084873</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6698,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L32" t="n">
-        <v>306.120802776629</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="M32" t="n">
-        <v>1463.16863798718</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6774,22 +6774,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="O33" t="n">
         <v>287.8657185439749</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.710185817961</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C34" t="n">
-        <v>926.1484743011862</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D34" t="n">
-        <v>760.2704815027089</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E34" t="n">
-        <v>590.5124777534461</v>
+        <v>533.2191185085203</v>
       </c>
       <c r="F34" t="n">
-        <v>413.8054237152023</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G34" t="n">
-        <v>248.21414874103</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H34" t="n">
-        <v>108.3119744314045</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6883,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T34" t="n">
-        <v>2313.799635050031</v>
+        <v>2473.041003752035</v>
       </c>
       <c r="U34" t="n">
-        <v>2035.366634303136</v>
+        <v>2265.028783187779</v>
       </c>
       <c r="V34" t="n">
-        <v>2035.366634303136</v>
+        <v>1978.07327505821</v>
       </c>
       <c r="W34" t="n">
-        <v>1763.340229889428</v>
+        <v>1706.046870644501</v>
       </c>
       <c r="X34" t="n">
-        <v>1517.94847522284</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y34" t="n">
-        <v>1290.528804536948</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6923,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G35" t="n">
         <v>391.8077842004234</v>
@@ -6938,7 +6938,7 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>102.2608402707796</v>
+        <v>306.120802776629</v>
       </c>
       <c r="L35" t="n">
         <v>306.120802776629</v>
@@ -7011,25 +7011,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
         <v>1107.588885023173</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>970.9960463903952</v>
+        <v>811.7546776883927</v>
       </c>
       <c r="C37" t="n">
-        <v>970.9960463903952</v>
+        <v>639.1929661716176</v>
       </c>
       <c r="D37" t="n">
-        <v>805.1180535919179</v>
+        <v>577.5122933038401</v>
       </c>
       <c r="E37" t="n">
-        <v>635.3600498426553</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="F37" t="n">
-        <v>458.6529958044115</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G37" t="n">
-        <v>293.0617208302391</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H37" t="n">
-        <v>153.1595465206136</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7120,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2473.041003752034</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2194.608003005139</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>1907.65249487557</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W37" t="n">
-        <v>1635.626090461862</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X37" t="n">
-        <v>1390.234335795274</v>
+        <v>1230.992967093272</v>
       </c>
       <c r="Y37" t="n">
-        <v>1162.814665109382</v>
+        <v>1003.57329640738</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651788</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835211</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009655</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771584</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004222</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7178,46 +7178,46 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L38" t="n">
-        <v>306.1208027766272</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M38" t="n">
-        <v>1463.168637987178</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423625</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993931</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.389162827328</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785922</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538979</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595854</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912871</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846697</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257731</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136695</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7230,16 +7230,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>501.9761240987146</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D39" t="n">
-        <v>406.8858352452679</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E39" t="n">
-        <v>312.7654205722216</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F39" t="n">
-        <v>229.3815821883832</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
         <v>143.9964924545671</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1083.781082102101</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C40" t="n">
-        <v>911.2193705853258</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D40" t="n">
-        <v>745.3413777868485</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E40" t="n">
-        <v>575.5833740375858</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F40" t="n">
-        <v>398.8763199993421</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>233.2850450251697</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961042</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7369,13 +7369,13 @@
         <v>1748.411126173567</v>
       </c>
       <c r="W40" t="n">
-        <v>1748.411126173567</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X40" t="n">
-        <v>1503.019371506979</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y40" t="n">
-        <v>1275.599700821088</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="41">
@@ -7391,16 +7391,16 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
         <v>102.6776296436396</v>
@@ -7412,28 +7412,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K41" t="n">
-        <v>102.2608402707796</v>
+        <v>306.120802776629</v>
       </c>
       <c r="L41" t="n">
-        <v>306.1208027766272</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M41" t="n">
-        <v>1463.168637987178</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423625</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993931</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>4397.389162827328</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785922</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.042013538979</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
         <v>5029.390139722817</v>
@@ -7467,16 +7467,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>501.9761240987146</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>406.8858352452679</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>312.7654205722216</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>229.3815821883832</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
         <v>143.9964924545671</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>811.7546776883919</v>
+        <v>1015.727725908489</v>
       </c>
       <c r="C43" t="n">
-        <v>639.1929661716168</v>
+        <v>843.1660143917136</v>
       </c>
       <c r="D43" t="n">
-        <v>639.1929661716168</v>
+        <v>677.2880215932362</v>
       </c>
       <c r="E43" t="n">
-        <v>639.1929661716168</v>
+        <v>507.5300178439734</v>
       </c>
       <c r="F43" t="n">
-        <v>496.4142387799021</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="G43" t="n">
         <v>330.8229638057297</v>
       </c>
       <c r="H43" t="n">
-        <v>190.9207894961042</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>188.8405254354694</v>
+        <v>188.8405254354693</v>
       </c>
       <c r="K43" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L43" t="n">
         <v>881.8088617745661</v>
@@ -7591,28 +7591,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S43" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T43" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U43" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008509</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.411126173567</v>
+        <v>1952.384174393663</v>
       </c>
       <c r="W43" t="n">
-        <v>1476.384721759858</v>
+        <v>1680.357769979955</v>
       </c>
       <c r="X43" t="n">
-        <v>1230.992967093271</v>
+        <v>1434.966015313368</v>
       </c>
       <c r="Y43" t="n">
-        <v>1003.573296407379</v>
+        <v>1207.546344627476</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7625,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
         <v>1654.847790009657</v>
@@ -7634,10 +7634,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771602</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
         <v>102.6776296436396</v>
@@ -7649,7 +7649,7 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K44" t="n">
-        <v>102.2608402707796</v>
+        <v>306.120802776629</v>
       </c>
       <c r="L44" t="n">
         <v>306.120802776629</v>
@@ -7685,13 +7685,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7722,22 +7722,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K45" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L45" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M45" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N45" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="O45" t="n">
         <v>287.8657185439749</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.710185817962</v>
+        <v>875.8255515988632</v>
       </c>
       <c r="C46" t="n">
-        <v>926.1484743011868</v>
+        <v>703.2638400820881</v>
       </c>
       <c r="D46" t="n">
-        <v>760.2704815027093</v>
+        <v>537.3858472836108</v>
       </c>
       <c r="E46" t="n">
-        <v>590.5124777534468</v>
+        <v>367.6278435343481</v>
       </c>
       <c r="F46" t="n">
-        <v>413.8054237152028</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="G46" t="n">
-        <v>330.8229638057297</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H46" t="n">
-        <v>190.9207894961042</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7807,10 +7807,10 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>881.8088617745663</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
         <v>1341.292728955479</v>
@@ -7828,28 +7828,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S46" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T46" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U46" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008509</v>
       </c>
       <c r="V46" t="n">
-        <v>2035.366634303136</v>
+        <v>1726.993304878939</v>
       </c>
       <c r="W46" t="n">
-        <v>1763.340229889428</v>
+        <v>1454.966900465231</v>
       </c>
       <c r="X46" t="n">
-        <v>1517.94847522284</v>
+        <v>1295.063841003742</v>
       </c>
       <c r="Y46" t="n">
-        <v>1290.528804536949</v>
+        <v>1067.64417031785</v>
       </c>
     </row>
   </sheetData>
@@ -7988,16 +7988,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2898988798406</v>
+        <v>479.9987875054325</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773348</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773349</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8061,22 +8061,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>375.3148740236106</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773348</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,19 +8134,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>310.9272166398487</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>234.1981173878764</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8225,19 +8225,19 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>424.2958575201043</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.1525905495951</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8304,16 +8304,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,19 +8371,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>310.9272166398487</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8462,16 +8462,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>270.2148169866472</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314078</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314078</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314079</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8526,13 +8526,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,16 +8541,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>182.7362419062505</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>459.6491932314078</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>459.6491932314078</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314079</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,16 +8608,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>428.4819356050693</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1101.201496790753</v>
+        <v>1101.201496790751</v>
       </c>
       <c r="N11" t="n">
         <v>1137.102003471159</v>
@@ -8763,13 +8763,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8781,10 +8781,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1101.201496790754</v>
+        <v>1101.201496790751</v>
       </c>
       <c r="N14" t="n">
         <v>1137.102003471159</v>
@@ -9000,13 +9000,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9018,10 +9018,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234297</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9170,10 +9170,10 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1101.201496790754</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>1069.568313180545</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9255,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234297</v>
+        <v>161.152732437109</v>
       </c>
       <c r="P18" t="n">
         <v>828.0031984638366</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1101.201496790753</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -9419,7 +9419,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>484.4852854251385</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697543</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9729,7 +9729,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>187.4796750234296</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P24" t="n">
         <v>828.0031984638366</v>
@@ -10346,16 +10346,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>1105.865833350039</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
@@ -10370,7 +10370,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10440,7 +10440,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P33" t="n">
         <v>828.0031984638366</v>
@@ -10586,10 +10586,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="L35" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -10659,13 +10659,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10677,10 +10677,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10826,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>205.9191540463107</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -11060,10 +11060,10 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="L41" t="n">
-        <v>205.9191540463107</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>1168.735187081365</v>
@@ -11297,10 +11297,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="L44" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -11388,7 +11388,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234296</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P45" t="n">
         <v>828.0031984638366</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>10.96843159933616</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>185.1957776566186</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>29.11146680044129</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>268.0111327346223</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>185.1957776566171</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,10 +23710,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>117.7661826744364</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23789,13 +23789,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>267.5985112554902</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>267.5985112554869</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>37.46509486400002</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>33.27974144948204</v>
       </c>
     </row>
     <row r="20">
@@ -23972,10 +23972,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>49.731956399799</v>
       </c>
       <c r="E20" t="n">
-        <v>267.5985112554878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24133,7 +24133,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>59.30510368402713</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>96.56253959275492</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>122.4480280049972</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>195.0325855607191</v>
+        <v>139.5921776627257</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>81.78272691405277</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,16 +25123,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>69.71657238081325</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25312,16 +25312,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>103.1553467313928</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>37.38363054573572</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>96.5625395927545</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25789,16 +25789,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>33.58904338006371</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>223.136960819577</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26035,10 +26035,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>81.78272691405216</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26080,13 +26080,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>84.63380825304836</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>606628.677566012</v>
+        <v>606628.6775660119</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>606628.6775660121</v>
+        <v>606628.6775660117</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>606628.6775660123</v>
+        <v>606628.6775660117</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>606628.6775660121</v>
+        <v>606628.6775660117</v>
       </c>
     </row>
     <row r="9">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>294881.0259397247</v>
+        <v>294881.0259397246</v>
       </c>
       <c r="C2" t="n">
-        <v>294881.0259397247</v>
+        <v>294881.0259397246</v>
       </c>
       <c r="D2" t="n">
-        <v>294881.0259397248</v>
+        <v>294881.0259397246</v>
       </c>
       <c r="E2" t="n">
         <v>278038.143884422</v>
       </c>
       <c r="F2" t="n">
-        <v>278038.1438844222</v>
+        <v>278038.143884422</v>
       </c>
       <c r="G2" t="n">
-        <v>278038.1438844222</v>
+        <v>278038.143884422</v>
       </c>
       <c r="H2" t="n">
-        <v>278038.1438844221</v>
+        <v>278038.1438844219</v>
       </c>
       <c r="I2" t="n">
         <v>289771.6712755438</v>
@@ -26338,22 +26338,22 @@
         <v>289771.6712755438</v>
       </c>
       <c r="K2" t="n">
-        <v>289771.6712755439</v>
+        <v>289771.6712755438</v>
       </c>
       <c r="L2" t="n">
         <v>289771.6712755438</v>
       </c>
       <c r="M2" t="n">
-        <v>289771.6712755438</v>
+        <v>289771.6712755437</v>
       </c>
       <c r="N2" t="n">
         <v>289771.6712755438</v>
       </c>
       <c r="O2" t="n">
-        <v>289771.6712755437</v>
+        <v>289771.6712755438</v>
       </c>
       <c r="P2" t="n">
-        <v>289771.6712755437</v>
+        <v>289771.6712755438</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039031</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.5443739065</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.8066720022</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520279</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
-        <v>1.30296939460095e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,25 +26384,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18364.7156328394</v>
+        <v>18364.71563283952</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.8294856134</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784502</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088509506</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104681</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>3.928538770451295e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169168.0932697598</v>
+        <v>125788.3839715077</v>
       </c>
       <c r="C4" t="n">
-        <v>169168.0932697598</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="D4" t="n">
-        <v>161077.0551897634</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="E4" t="n">
+        <v>773.6821211687732</v>
+      </c>
+      <c r="F4" t="n">
+        <v>773.6821211687732</v>
+      </c>
+      <c r="G4" t="n">
         <v>773.6821211687734</v>
       </c>
-      <c r="F4" t="n">
-        <v>773.6821211687736</v>
-      </c>
-      <c r="G4" t="n">
-        <v>773.6821211687736</v>
-      </c>
       <c r="H4" t="n">
-        <v>773.6821211687734</v>
+        <v>773.6821211687732</v>
       </c>
       <c r="I4" t="n">
         <v>806.3323907826023</v>
@@ -26448,13 +26448,13 @@
         <v>806.3323907826023</v>
       </c>
       <c r="M4" t="n">
+        <v>806.3323907826431</v>
+      </c>
+      <c r="N4" t="n">
         <v>806.3323907826023</v>
       </c>
-      <c r="N4" t="n">
-        <v>806.332390782602</v>
-      </c>
       <c r="O4" t="n">
-        <v>806.3323907826839</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="P4" t="n">
         <v>806.3323907826023</v>
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814195</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.2709484696</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764755</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764758</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="G5" t="n">
-        <v>73519.34227764758</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="H5" t="n">
-        <v>73519.34227764755</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26503,10 +26503,10 @@
         <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579247</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.23860579247</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
         <v>77718.2386057925</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-75903.15612696734</v>
+        <v>-107568.7507938281</v>
       </c>
       <c r="C6" t="n">
-        <v>66288.14453274253</v>
+        <v>89823.5507858098</v>
       </c>
       <c r="D6" t="n">
-        <v>61247.89312948957</v>
+        <v>107164.0951597162</v>
       </c>
       <c r="E6" t="n">
-        <v>-20054.17426642223</v>
+        <v>41933.48572069451</v>
       </c>
       <c r="F6" t="n">
-        <v>203745.1194856057</v>
+        <v>203668.5609308089</v>
       </c>
       <c r="G6" t="n">
-        <v>203745.1194856059</v>
+        <v>203668.5609308089</v>
       </c>
       <c r="H6" t="n">
-        <v>203745.1194856059</v>
+        <v>203668.5609308088</v>
       </c>
       <c r="I6" t="n">
-        <v>192882.3846461293</v>
+        <v>192859.1603067465</v>
       </c>
       <c r="J6" t="n">
-        <v>100232.6349339785</v>
+        <v>50616.04645397266</v>
       </c>
       <c r="K6" t="n">
-        <v>211247.1002789687</v>
+        <v>197409.867371741</v>
       </c>
       <c r="L6" t="n">
-        <v>202299.4891904592</v>
+        <v>211223.8759395861</v>
       </c>
       <c r="M6" t="n">
-        <v>24456.11366850058</v>
+        <v>76233.93132658258</v>
       </c>
       <c r="N6" t="n">
-        <v>211247.1002789687</v>
+        <v>211223.8759395861</v>
       </c>
       <c r="O6" t="n">
-        <v>211247.1002789686</v>
+        <v>211223.875939586</v>
       </c>
       <c r="P6" t="n">
-        <v>211247.1002789686</v>
+        <v>211223.8759395861</v>
       </c>
     </row>
   </sheetData>
@@ -26722,7 +26722,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773348</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314078</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1209.19970851394</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.199708513941</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="G4" t="n">
-        <v>1209.199708513941</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="H4" t="n">
         <v>1209.19970851394</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>4.910673463064118e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773348</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052212</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130347</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.5505152825323</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>69.06079487080524</v>
+        <v>69.06079487080569</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773348</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052212</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130347</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.550515282532</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773348</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052212</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130347</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825323</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>178.4789880059575</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>355.7516491774866</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27543,10 +27543,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>83.88242254919061</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,10 +27591,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>2.825898018288967</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
@@ -27622,13 +27622,13 @@
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>154.5173183339556</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>39.15674168052101</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,7 +27780,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,10 +27789,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,22 +27822,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>266.2452996305042</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>197.1718905122115</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>59.75665129152964</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>369.7677262526159</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28011,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -28065,10 +28065,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>181.8382839463447</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -34708,16 +34708,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2898988798406</v>
+        <v>479.9987875054325</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773348</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773349</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,7 +34772,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -34781,22 +34781,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>375.3148740236106</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773348</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,22 +34854,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M4" t="n">
-        <v>310.9272166398487</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>234.1981173878764</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -34945,19 +34945,19 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>424.2958575201043</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.1525905495951</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35024,16 +35024,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,25 +35091,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>310.9272166398487</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35182,19 +35182,19 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>270.2148169866472</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314078</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314078</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314079</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697542</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,13 +35246,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35261,16 +35261,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>182.7362419062505</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>459.6491932314078</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>459.6491932314078</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314079</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>428.4819356050693</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35416,7 +35416,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1101.201496790753</v>
+        <v>1101.201496790751</v>
       </c>
       <c r="N11" t="n">
         <v>1137.102003471159</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35501,10 +35501,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35653,7 +35653,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1101.201496790754</v>
+        <v>1101.201496790751</v>
       </c>
       <c r="N14" t="n">
         <v>1137.102003471159</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35738,10 +35738,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234297</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,16 +35802,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -35890,10 +35890,10 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1101.201496790754</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>1069.568313180545</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35975,7 +35975,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234297</v>
+        <v>161.152732437109</v>
       </c>
       <c r="P18" t="n">
         <v>828.0031984638366</v>
@@ -36039,16 +36039,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
@@ -36127,7 +36127,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1101.201496790753</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -36139,7 +36139,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>484.4852854251385</v>
       </c>
       <c r="R20" t="n">
         <v>170.862691669754</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36449,7 +36449,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>187.4796750234296</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P24" t="n">
         <v>828.0031984638366</v>
@@ -36528,7 +36528,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -37066,16 +37066,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>1105.865833350039</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
@@ -37090,7 +37090,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -37160,7 +37160,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P33" t="n">
         <v>828.0031984638366</v>
@@ -37239,7 +37239,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37306,10 +37306,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="L35" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37397,10 +37397,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37476,7 +37476,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
@@ -37546,7 +37546,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>205.9191540463107</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.4542274390807</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37780,10 +37780,10 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="L41" t="n">
-        <v>205.9191540463107</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>1168.735187081365</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908054</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960968</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
-        <v>446.7260637956006</v>
+        <v>446.7260637956008</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P43" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,10 +38017,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="L44" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -38108,7 +38108,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234296</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P45" t="n">
         <v>828.0031984638366</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908071</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38181,13 +38181,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
